--- a/maket.xlsx
+++ b/maket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UFK\Documents\GitHub\dohody_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Сопоставитель поступлений\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,7 +161,7 @@
       </rPr>
       <t xml:space="preserve">Поступление доходов в бюджеты бюджетной системы Российской Федерации
 на территории Московской области
-по состоянию на  года </t>
+по состоянию на 11 июня 2021 года </t>
     </r>
     <r>
       <rPr>
@@ -177,7 +177,7 @@
     </r>
   </si>
   <si>
-    <t>Справочно:                                                                                                                                                                                                                                              По состоянию на  общая сумма доходов, перечисленных со счета № 40101/03100 на единые счета бюджетов бюджетной системы  на территории Московской области составляет  млн. руб. Сумма перечисленных доходов в  году увеличилась на  млн. руб. или на  по отношению к  году за соответствующий период.</t>
+    <t>Справочно:                                                                                                                                                                                                                                              По состоянию на     общая сумма доходов, перечисленных со счета № 40101/03100 на единые счета бюджетов бюджетной системы  на территории Московской области составляет    млн. руб. Сумма перечисленных доходов в 2021 году увеличилась на      млн. руб. или на    % по отношению к 2020 году за соответствующий период.</t>
   </si>
 </sst>
 </file>
@@ -889,10 +889,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -906,15 +906,16 @@
     <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="H1" s="63" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="64"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>43</v>
       </c>
@@ -927,7 +928,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>44</v>
       </c>
@@ -942,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>17</v>
       </c>
@@ -965,7 +966,7 @@
       <c r="H4" s="69"/>
       <c r="I4" s="70"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
@@ -984,18 +985,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="e">
-        <f t="shared" ref="D6:D14" si="0">C6/B6*100-100</f>
+        <f>IF(B6&lt;0,-J6,J6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" ref="E6:E14" si="1">C6-B6</f>
+        <f t="shared" ref="E6:E14" si="0">C6-B6</f>
         <v>0</v>
       </c>
       <c r="F6" s="9" t="e">
@@ -1005,19 +1006,23 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="3" t="e">
+        <f>C6/B6*100-100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="25" t="e">
+      <c r="D7" s="8" t="e">
+        <f t="shared" ref="D7:D31" si="1">IF(B7&lt;0,-J7,J7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" s="26" t="e">
@@ -1027,19 +1032,23 @@
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
       <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="3" t="e">
+        <f t="shared" ref="J7:J31" si="2">C7/B7*100-100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="14" t="e">
@@ -1052,19 +1061,23 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="16"/>
@@ -1074,19 +1087,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" s="30" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="30" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="25" t="e">
+      <c r="D10" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="27"/>
@@ -1099,76 +1116,92 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="25" t="e">
+      <c r="D11" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="59"/>
-      <c r="D12" s="25" t="e">
+      <c r="D12" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" s="30" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="30" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="60"/>
-      <c r="D13" s="25" t="e">
+      <c r="D13" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14" s="9"/>
@@ -1184,28 +1217,33 @@
         <f>I16+I19</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="35"/>
       <c r="F15" s="26"/>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
       <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="25" t="e">
-        <f t="shared" ref="D16:D23" si="2">C16/B16*100-100</f>
+      <c r="D16" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E16" s="25">
@@ -1219,15 +1257,19 @@
         <f>C16/C14*100</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="43" t="e">
-        <f t="shared" si="2"/>
+      <c r="D17" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="43">
@@ -1238,15 +1280,19 @@
       <c r="G17" s="26"/>
       <c r="H17" s="36"/>
       <c r="I17" s="26"/>
-    </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="J17" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="30" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="35" t="e">
-        <f t="shared" si="2"/>
+      <c r="D18" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="35">
@@ -1257,15 +1303,19 @@
       <c r="G18" s="26"/>
       <c r="H18" s="36"/>
       <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="J18" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="25" t="e">
-        <f t="shared" si="2"/>
+      <c r="D19" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="25">
@@ -1279,15 +1329,19 @@
         <f>C19/C14*100</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="30" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="35" t="e">
-        <f t="shared" si="2"/>
+      <c r="D20" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="35">
@@ -1298,15 +1352,19 @@
       <c r="G20" s="26"/>
       <c r="H20" s="36"/>
       <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="30" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="35" t="e">
-        <f>C21/B21*100-100</f>
+      <c r="D21" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="35">
@@ -1317,15 +1375,19 @@
       <c r="G21" s="26"/>
       <c r="H21" s="36"/>
       <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="30" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="35" t="e">
-        <f t="shared" si="2"/>
+      <c r="D22" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="35">
@@ -1336,15 +1398,19 @@
       <c r="G22" s="26"/>
       <c r="H22" s="36"/>
       <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="8">
@@ -1358,108 +1424,128 @@
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="19"/>
       <c r="F24" s="13"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="30" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="35" t="e">
-        <f t="shared" ref="D25:D31" si="4">C25/B25*100-100</f>
+      <c r="D25" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="35">
-        <f t="shared" ref="E25:E31" si="5">C25-B25</f>
+        <f t="shared" ref="E25:E31" si="4">C25-B25</f>
         <v>0</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
       <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="30" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="35" t="e">
-        <f>C26/B26*100-100</f>
+      <c r="D26" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
       <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="35" t="e">
+      <c r="D27" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="35">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="35">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="40"/>
       <c r="H27" s="41"/>
       <c r="I27" s="36"/>
-    </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="30" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="35" t="e">
+      <c r="D28" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="35">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="35">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="30" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="35" t="e">
+      <c r="D29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="25">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F29" s="45"/>
@@ -1469,19 +1555,23 @@
       </c>
       <c r="H29" s="46"/>
       <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="30" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="35" t="e">
+      <c r="D30" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="25">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F30" s="26" t="e">
@@ -1491,27 +1581,35 @@
       <c r="G30" s="26"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="1:9" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="J30" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="30" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="25" t="e">
+      <c r="D31" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
-    </row>
-    <row r="32" spans="1:9" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="30" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1628,7 @@
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
     </row>
-    <row r="33" spans="1:9" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>34</v>
       </c>
@@ -1543,14 +1641,14 @@
       <c r="H33" s="66"/>
       <c r="I33" s="67"/>
     </row>
-    <row r="34" spans="1:9" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="30" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="53" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="45" t="e">
-        <f>C34/B34*100-100</f>
+        <f>IF(B34&lt;0,-J34,J34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="48">
@@ -1564,15 +1662,20 @@
       <c r="G34" s="55"/>
       <c r="H34" s="55"/>
       <c r="I34" s="55"/>
-    </row>
-    <row r="35" spans="1:9" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="30" t="e">
+        <f>C34/B34*100-100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="61"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="45">
-        <v>94.82</v>
+      <c r="D35" s="45" t="e">
+        <f t="shared" ref="D35:D38" si="5">IF(B35&lt;0,-J35,J35)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E35" s="48">
         <f>C35-B35</f>
@@ -1585,15 +1688,19 @@
       <c r="G35" s="54"/>
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
-    </row>
-    <row r="36" spans="1:9" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="30" t="e">
+        <f t="shared" ref="J35:J38" si="6">C35/B35*100-100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="61"/>
       <c r="C36" s="57"/>
       <c r="D36" s="45" t="e">
-        <f>C36/B36*100-100</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="48">
@@ -1607,15 +1714,20 @@
       <c r="G36" s="54"/>
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
-    </row>
-    <row r="37" spans="1:9" s="30" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="30" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="61"/>
       <c r="C37" s="57"/>
-      <c r="D37" s="45">
-        <v>600.9</v>
+      <c r="D37" s="45" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E37" s="48">
         <f>C37-B37</f>
@@ -1628,15 +1740,20 @@
       <c r="G37" s="54"/>
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
-    </row>
-    <row r="38" spans="1:9" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="61"/>
       <c r="C38" s="57"/>
-      <c r="D38" s="45">
-        <v>-230.77</v>
+      <c r="D38" s="45" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E38" s="48">
         <f>C38-B38</f>
@@ -1649,24 +1766,28 @@
       <c r="G38" s="58"/>
       <c r="H38" s="58"/>
       <c r="I38" s="58"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48" s="2"/>
     </row>
   </sheetData>
